--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653228.968562213</v>
+        <v>1651037.091409039</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3165573.335774304</v>
+        <v>3165573.335774305</v>
       </c>
     </row>
     <row r="9">
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8069000430770259</v>
       </c>
       <c r="X2" t="n">
-        <v>14.95103878648243</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -737,26 +737,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D3" t="n">
+      <c r="H3" t="n">
         <v>36.39025468426209</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.39025468426209</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36.39025468426209</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>15.18661160258025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.18661160258025</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1220,49 +1220,49 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="F9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>36.39025468426208</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
         <v>41.31500304752735</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>15.18661160258025</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>151.9486003641521</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
         <v>271.5679831933489</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
         <v>256.5154774752252</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>350.6724500194777</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T12" t="n">
         <v>125.7874466415632</v>
@@ -1548,7 +1548,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.4504960531559</v>
+        <v>146.4504960531557</v>
       </c>
       <c r="T13" t="n">
         <v>240.675072556151</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896231</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1612,19 +1612,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>154.0390495771919</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>271.5679831933489</v>
+        <v>169.167400307904</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T15" t="n">
         <v>125.7874466415632</v>
@@ -1785,7 +1785,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>146.4504960531559</v>
       </c>
       <c r="T16" t="n">
-        <v>240.675072556151</v>
+        <v>240.6750725561512</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896236</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.17425404093571</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>287.6036143084099</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T18" t="n">
         <v>125.7874466415632</v>
@@ -2022,7 +2022,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>51.63499229099265</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.1716401042781</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T20" t="n">
         <v>211.5956667680352</v>
@@ -2140,7 +2140,7 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>12.56309446868319</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T21" t="n">
         <v>125.7874466415632</v>
@@ -2259,7 +2259,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I22" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896226</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.1716401042781</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T23" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752256</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T24" t="n">
         <v>125.7874466415632</v>
@@ -2496,7 +2496,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I25" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.1716401042781</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T26" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T27" t="n">
         <v>125.7874466415632</v>
@@ -2733,7 +2733,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.1716401042781</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T29" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T30" t="n">
         <v>125.7874466415632</v>
@@ -2970,7 +2970,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.1716401042781</v>
+        <v>50.17164010427747</v>
       </c>
       <c r="T32" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752265</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T33" t="n">
         <v>125.7874466415632</v>
@@ -3207,7 +3207,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I34" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3283,7 +3283,7 @@
         <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5679831933489</v>
+        <v>186.9076039688337</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>330.9746853565394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T36" t="n">
         <v>125.7874466415632</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.2927798113889</v>
+        <v>163.2927798113888</v>
       </c>
       <c r="H37" t="n">
         <v>132.7900107487581</v>
       </c>
       <c r="I37" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>399.7627800610531</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.9513258013682</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>356.1294750046342</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T39" t="n">
         <v>125.7874466415632</v>
@@ -3681,7 +3681,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>214.6099226170797</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.1716401042781</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T41" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>345.0916937019355</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T42" t="n">
         <v>125.7874466415632</v>
@@ -3918,7 +3918,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I43" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>275.6136207896234</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482737</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>428.7683266982717</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>15.10794284020418</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
         <v>271.5679831933489</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.1716401042781</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>48.58404546828455</v>
+        <v>48.58404546828454</v>
       </c>
       <c r="T45" t="n">
         <v>125.7874466415632</v>
@@ -4155,7 +4155,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I46" t="n">
-        <v>68.44914407541629</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>85.10890627790634</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4388,19 +4388,19 @@
         <v>81.79535956884203</v>
       </c>
       <c r="C3" t="n">
+        <v>81.79535956884203</v>
+      </c>
+      <c r="D3" t="n">
+        <v>81.79535956884203</v>
+      </c>
+      <c r="E3" t="n">
+        <v>81.79535956884203</v>
+      </c>
+      <c r="F3" t="n">
+        <v>81.79535956884203</v>
+      </c>
+      <c r="G3" t="n">
         <v>40.06303325820834</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="H3" t="n">
         <v>3.305200243802188</v>
@@ -4421,40 +4421,40 @@
         <v>3.305200243802188</v>
       </c>
       <c r="N3" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O3" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P3" t="n">
-        <v>126.0107592949584</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T3" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U3" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="V3" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="W3" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="X3" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="Y3" t="n">
         <v>123.5276858794757</v>
-      </c>
-      <c r="T3" t="n">
-        <v>123.5276858794757</v>
-      </c>
-      <c r="U3" t="n">
-        <v>123.5276858794757</v>
-      </c>
-      <c r="V3" t="n">
-        <v>123.5276858794757</v>
-      </c>
-      <c r="W3" t="n">
-        <v>123.5276858794757</v>
-      </c>
-      <c r="X3" t="n">
-        <v>123.5276858794757</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C4" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D4" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E4" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="F4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I4" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M4" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N4" t="n">
         <v>124.3581591730573</v>
@@ -4512,28 +4512,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S4" t="n">
-        <v>143.8421908954813</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T4" t="n">
-        <v>102.1098645848476</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U4" t="n">
-        <v>60.37753827421391</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V4" t="n">
-        <v>18.64521196358022</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W4" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X4" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="5">
@@ -4567,28 +4567,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N5" t="n">
         <v>83.45630615600527</v>
       </c>
       <c r="O5" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P5" t="n">
         <v>124.3581591730573</v>
       </c>
-      <c r="P5" t="n">
-        <v>165.2600121901094</v>
-      </c>
       <c r="Q5" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R5" t="n">
         <v>165.2600121901094</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C6" t="n">
         <v>81.79535956884203</v>
       </c>
       <c r="D6" t="n">
-        <v>40.06303325820834</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
         <v>3.305200243802188</v>
@@ -4643,16 +4643,16 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
-        <v>42.55445313895319</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L6" t="n">
-        <v>42.55445313895319</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M6" t="n">
         <v>42.55445313895319</v>
@@ -4661,10 +4661,10 @@
         <v>83.45630615600527</v>
       </c>
       <c r="O6" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P6" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q6" t="n">
         <v>165.2600121901094</v>
@@ -4676,22 +4676,22 @@
         <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.64521196358022</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C7" t="n">
-        <v>18.64521196358022</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D7" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="E7" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="F7" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M7" t="n">
-        <v>124.3581591730573</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N7" t="n">
-        <v>124.3581591730573</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O7" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
@@ -4752,25 +4752,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.37753827421391</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="8">
@@ -4807,19 +4807,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N8" t="n">
         <v>42.55445313895319</v>
       </c>
       <c r="O8" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P8" t="n">
         <v>83.45630615600527</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
         <v>3.305200243802188</v>
@@ -4880,55 +4880,55 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K9" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L9" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M9" t="n">
-        <v>85.10890627790634</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N9" t="n">
-        <v>126.0107592949584</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O9" t="n">
-        <v>126.0107592949584</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="P9" t="n">
-        <v>126.0107592949584</v>
+        <v>152.074432455416</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.0107592949584</v>
+        <v>152.074432455416</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="U9" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V9" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W9" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
         <v>45.03752655443588</v>
@@ -4968,19 +4968,19 @@
         <v>83.45630615600527</v>
       </c>
       <c r="L10" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="M10" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="N10" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="O10" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P10" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="M10" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="N10" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="O10" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P10" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4989,25 +4989,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>86.76985286506957</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="X10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1206.354114216495</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="C11" t="n">
-        <v>768.211641399918</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="D11" t="n">
-        <v>768.211641399918</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="E11" t="n">
-        <v>334.4368965582132</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F11" t="n">
-        <v>334.4368965582132</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G11" t="n">
         <v>334.4368965582132</v>
@@ -5053,10 +5053,10 @@
         <v>1323.242729486271</v>
       </c>
       <c r="N11" t="n">
-        <v>1576.296055885761</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O11" t="n">
-        <v>1815.247136257286</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P11" t="n">
         <v>2048.4012797357</v>
@@ -5068,25 +5068,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S11" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T11" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U11" t="n">
-        <v>2747.183578271595</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V11" t="n">
-        <v>2384.566628205421</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W11" t="n">
-        <v>1979.711173616455</v>
+        <v>1715.29975253331</v>
       </c>
       <c r="X11" t="n">
-        <v>1560.568710195765</v>
+        <v>1296.157289112621</v>
       </c>
       <c r="Y11" t="n">
-        <v>1206.354114216495</v>
+        <v>887.8711654122741</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J12" t="n">
-        <v>434.0744497294286</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K12" t="n">
-        <v>556.604810378728</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L12" t="n">
-        <v>721.3620014574025</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M12" t="n">
         <v>913.6258723515552</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1113.244639915735</v>
+        <v>1113.244639915734</v>
       </c>
       <c r="C13" t="n">
-        <v>940.6829283989596</v>
+        <v>940.6829283989591</v>
       </c>
       <c r="D13" t="n">
-        <v>774.8049356004822</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E13" t="n">
-        <v>605.0469318512191</v>
+        <v>605.046931851219</v>
       </c>
       <c r="F13" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129752</v>
       </c>
       <c r="G13" t="n">
         <v>263.3976759832894</v>
@@ -5202,19 +5202,19 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K13" t="n">
-        <v>540.3500421434334</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L13" t="n">
         <v>1053.139058957355</v>
       </c>
       <c r="M13" t="n">
-        <v>1303.573255757435</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N13" t="n">
-        <v>1843.181366743664</v>
+        <v>2151.951474057205</v>
       </c>
       <c r="O13" t="n">
-        <v>2352.768458191201</v>
+        <v>2661.538565504743</v>
       </c>
       <c r="P13" t="n">
         <v>2777.215599969509</v>
@@ -5244,7 +5244,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y13" t="n">
-        <v>1305.063258634722</v>
+        <v>1305.063258634721</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1755.992632681299</v>
+        <v>1538.82896683453</v>
       </c>
       <c r="C14" t="n">
-        <v>1317.850159864723</v>
+        <v>1100.686494017953</v>
       </c>
       <c r="D14" t="n">
-        <v>1162.255160291802</v>
+        <v>664.7767091923979</v>
       </c>
       <c r="E14" t="n">
-        <v>1162.255160291802</v>
+        <v>231.0019643506931</v>
       </c>
       <c r="F14" t="n">
-        <v>734.3877307010093</v>
+        <v>231.0019643506931</v>
       </c>
       <c r="G14" t="n">
-        <v>334.4368965582132</v>
+        <v>231.0019643506931</v>
       </c>
       <c r="H14" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I14" t="n">
-        <v>114.392539339505</v>
+        <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>414.7444536643607</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1450649206574</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L14" t="n">
-        <v>818.947975297341</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M14" t="n">
-        <v>1563.004780288367</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N14" t="n">
-        <v>1816.058106687857</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O14" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P14" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q14" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R14" t="n">
         <v>3006.290121175863</v>
@@ -5308,22 +5308,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T14" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U14" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="V14" t="n">
-        <v>3006.290121175863</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="W14" t="n">
-        <v>2601.434666586896</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="X14" t="n">
-        <v>2182.292203166207</v>
+        <v>2373.414661019784</v>
       </c>
       <c r="Y14" t="n">
-        <v>2182.292203166207</v>
+        <v>1965.128537319438</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J15" t="n">
-        <v>434.0744497294288</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K15" t="n">
-        <v>556.6048103787282</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L15" t="n">
-        <v>721.3620014574027</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M15" t="n">
-        <v>913.6258723515555</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N15" t="n">
-        <v>1110.978395809273</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O15" t="n">
-        <v>1291.517398828056</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P15" t="n">
-        <v>1436.415865350293</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q15" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5415,16 +5415,16 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C16" t="n">
-        <v>940.6829283989587</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D16" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E16" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F16" t="n">
-        <v>428.3398778129749</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G16" t="n">
         <v>263.3976759832894</v>
@@ -5439,7 +5439,7 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K16" t="n">
-        <v>540.3500421434334</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L16" t="n">
         <v>1053.139058957355</v>
@@ -5451,7 +5451,7 @@
         <v>2151.951474057205</v>
       </c>
       <c r="O16" t="n">
-        <v>2352.768458191201</v>
+        <v>2661.538565504743</v>
       </c>
       <c r="P16" t="n">
         <v>2777.215599969509</v>
@@ -5475,7 +5475,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W16" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X16" t="n">
         <v>1532.482929320613</v>
@@ -5512,55 +5512,55 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I17" t="n">
-        <v>114.392539339505</v>
+        <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>234.7606604020847</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K17" t="n">
-        <v>415.1612716583815</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L17" t="n">
-        <v>833.0502213253063</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M17" t="n">
-        <v>1577.107026316332</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N17" t="n">
-        <v>2321.163831307358</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O17" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P17" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q17" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R17" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S17" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T17" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U17" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V17" t="n">
-        <v>2643.673171109689</v>
+        <v>2192.263455866824</v>
       </c>
       <c r="W17" t="n">
-        <v>2238.817716520723</v>
+        <v>2192.263455866824</v>
       </c>
       <c r="X17" t="n">
-        <v>1819.675253100033</v>
+        <v>2192.263455866824</v>
       </c>
       <c r="Y17" t="n">
-        <v>1411.389129399687</v>
+        <v>1783.977332166477</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880325</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K18" t="n">
-        <v>280.4721130373318</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L18" t="n">
-        <v>445.2293041160063</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M18" t="n">
-        <v>637.493175010159</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N18" t="n">
-        <v>834.845698467877</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O18" t="n">
         <v>1408.690176922396</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C19" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D19" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E19" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F19" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G19" t="n">
         <v>263.3976759832894</v>
@@ -5673,25 +5673,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J19" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K19" t="n">
-        <v>540.3500421434334</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L19" t="n">
-        <v>1053.139058957355</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M19" t="n">
-        <v>1612.343363070976</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N19" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O19" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P19" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q19" t="n">
         <v>2998.677814292588</v>
@@ -5706,7 +5706,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U19" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V19" t="n">
         <v>2049.901088400909</v>
@@ -5718,7 +5718,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y19" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1648.186463003196</v>
+        <v>2470.082162775639</v>
       </c>
       <c r="C20" t="n">
-        <v>1596.029905133506</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="D20" t="n">
         <v>1596.029905133506</v>
@@ -5746,37 +5746,37 @@
         <v>334.4368965582132</v>
       </c>
       <c r="H20" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I20" t="n">
-        <v>114.392539339505</v>
+        <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>234.7606604020847</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1612716583815</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L20" t="n">
-        <v>638.9641820350651</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M20" t="n">
-        <v>887.9880420333529</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N20" t="n">
-        <v>1611.892180331744</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O20" t="n">
-        <v>1850.843260703269</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P20" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q20" t="n">
         <v>2748.049925732253</v>
       </c>
       <c r="R20" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S20" t="n">
         <v>2955.611696828107</v>
@@ -5788,16 +5788,16 @@
         <v>2482.77215718845</v>
       </c>
       <c r="V20" t="n">
-        <v>2482.77215718845</v>
+        <v>2470.082162775639</v>
       </c>
       <c r="W20" t="n">
-        <v>2482.77215718845</v>
+        <v>2470.082162775639</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.77215718845</v>
+        <v>2470.082162775639</v>
       </c>
       <c r="Y20" t="n">
-        <v>2074.486033488104</v>
+        <v>2470.082162775639</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G21" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H21" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J21" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K21" t="n">
-        <v>280.4721130373318</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L21" t="n">
-        <v>445.2293041160063</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M21" t="n">
-        <v>913.6258723515555</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N21" t="n">
         <v>1110.978395809273</v>
@@ -5889,13 +5889,13 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C22" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004815</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F22" t="n">
         <v>428.3398778129751</v>
@@ -5907,40 +5907,40 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I22" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="J22" t="n">
         <v>105.1020732595475</v>
       </c>
       <c r="K22" t="n">
-        <v>453.7703569787436</v>
+        <v>399.7727096942237</v>
       </c>
       <c r="L22" t="n">
-        <v>966.5593737926655</v>
+        <v>912.5617265081459</v>
       </c>
       <c r="M22" t="n">
-        <v>1525.763677906287</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N22" t="n">
-        <v>2065.371788892515</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O22" t="n">
-        <v>2574.958880340052</v>
+        <v>2520.961233055533</v>
       </c>
       <c r="P22" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.40837483384</v>
       </c>
       <c r="Q22" t="n">
-        <v>2998.677814292588</v>
+        <v>2998.677814292587</v>
       </c>
       <c r="R22" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S22" t="n">
-        <v>2858.360327182776</v>
+        <v>2858.360327182775</v>
       </c>
       <c r="T22" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U22" t="n">
         <v>2336.856596530478</v>
@@ -5949,7 +5949,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W22" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X22" t="n">
         <v>1532.482929320613</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.07217436438</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547804</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722248</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880543</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897501</v>
+        <v>775.377742289751</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469534</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I23" t="n">
-        <v>155.3825509282453</v>
+        <v>155.3825509282454</v>
       </c>
       <c r="J23" t="n">
-        <v>275.7506719908249</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K23" t="n">
-        <v>456.1512832471217</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>679.9541936238052</v>
+        <v>2324.624498801547</v>
       </c>
       <c r="M23" t="n">
-        <v>1931.262392025492</v>
+        <v>2573.648358799835</v>
       </c>
       <c r="N23" t="n">
-        <v>3182.570590427179</v>
+        <v>2826.701685199325</v>
       </c>
       <c r="O23" t="n">
-        <v>3421.521670798703</v>
+        <v>3065.652765570851</v>
       </c>
       <c r="P23" t="n">
-        <v>4267.05592392577</v>
+        <v>4097.901859172715</v>
       </c>
       <c r="Q23" t="n">
-        <v>4966.704569922323</v>
+        <v>4797.550505169268</v>
       </c>
       <c r="R23" t="n">
-        <v>5055.790700612875</v>
+        <v>5055.790700612877</v>
       </c>
       <c r="S23" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265121</v>
       </c>
       <c r="T23" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.379279529732</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V23" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970324</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549635</v>
       </c>
       <c r="Y23" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849288</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D24" t="n">
-        <v>397.4893413874963</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E24" t="n">
-        <v>303.36892671445</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F24" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3742103715399</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H24" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767727</v>
+        <v>224.9954371372304</v>
       </c>
       <c r="K24" t="n">
-        <v>321.462124626072</v>
+        <v>347.5257977865298</v>
       </c>
       <c r="L24" t="n">
-        <v>486.2193157047466</v>
+        <v>512.2829888652045</v>
       </c>
       <c r="M24" t="n">
-        <v>678.4831865988994</v>
+        <v>704.5468597593573</v>
       </c>
       <c r="N24" t="n">
-        <v>875.8357100566172</v>
+        <v>901.8993832170754</v>
       </c>
       <c r="O24" t="n">
-        <v>1056.3747130754</v>
+        <v>1082.438386235859</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.578655033373</v>
+        <v>1227.336852758096</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6150,22 +6150,22 @@
         <v>146.0920848482878</v>
       </c>
       <c r="K25" t="n">
-        <v>272.5699464186323</v>
+        <v>440.7627212829649</v>
       </c>
       <c r="L25" t="n">
-        <v>785.3589632325544</v>
+        <v>953.551738096887</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.563267346175</v>
+        <v>1512.756042210508</v>
       </c>
       <c r="N25" t="n">
-        <v>1884.171378332404</v>
+        <v>2052.364153196736</v>
       </c>
       <c r="O25" t="n">
-        <v>2393.758469779942</v>
+        <v>2561.951244644274</v>
       </c>
       <c r="P25" t="n">
-        <v>2818.205611558249</v>
+        <v>2986.398386422581</v>
       </c>
       <c r="Q25" t="n">
         <v>3039.667825881328</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.07217436438</v>
       </c>
       <c r="C26" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D26" t="n">
         <v>1637.019916722247</v>
@@ -6214,10 +6214,10 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G26" t="n">
-        <v>375.4269081469534</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H26" t="n">
         <v>101.1158140122575</v>
@@ -6226,31 +6226,31 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J26" t="n">
-        <v>711.0053594437428</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K26" t="n">
         <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>2324.624498801546</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M26" t="n">
-        <v>2573.648358799834</v>
+        <v>2198.583033033189</v>
       </c>
       <c r="N26" t="n">
-        <v>2826.701685199324</v>
+        <v>2451.636359432679</v>
       </c>
       <c r="O26" t="n">
-        <v>3065.652765570849</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P26" t="n">
         <v>4097.901859172714</v>
       </c>
       <c r="Q26" t="n">
-        <v>4797.550505169266</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R26" t="n">
-        <v>5055.790700612875</v>
+        <v>5055.790700612876</v>
       </c>
       <c r="S26" t="n">
         <v>5005.11227626512</v>
@@ -6259,10 +6259,10 @@
         <v>4791.379279529731</v>
       </c>
       <c r="U26" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V26" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W26" t="n">
         <v>3764.800331970323</v>
@@ -6271,7 +6271,7 @@
         <v>3345.657868549634</v>
       </c>
       <c r="Y26" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849288</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D27" t="n">
-        <v>397.4893413874963</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E27" t="n">
-        <v>303.36892671445</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F27" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3742103715399</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H27" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I27" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767727</v>
+        <v>224.9954371372304</v>
       </c>
       <c r="K27" t="n">
-        <v>714.7676000618081</v>
+        <v>347.5257977865298</v>
       </c>
       <c r="L27" t="n">
-        <v>879.5247911404826</v>
+        <v>512.2829888652045</v>
       </c>
       <c r="M27" t="n">
-        <v>1071.788662034635</v>
+        <v>704.5468597593573</v>
       </c>
       <c r="N27" t="n">
-        <v>1269.141185492353</v>
+        <v>901.8993832170754</v>
       </c>
       <c r="O27" t="n">
-        <v>1449.680188511137</v>
+        <v>1082.438386235859</v>
       </c>
       <c r="P27" t="n">
-        <v>1594.578655033373</v>
+        <v>1227.336852758096</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6387,13 +6387,13 @@
         <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
-        <v>581.3400537321736</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L28" t="n">
         <v>1094.129070546096</v>
       </c>
       <c r="M28" t="n">
-        <v>1653.333374659717</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N28" t="n">
         <v>1884.171378332404</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C29" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E29" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
@@ -6463,19 +6463,19 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>275.750671990825</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K29" t="n">
-        <v>1120.641921854557</v>
+        <v>891.4059707000398</v>
       </c>
       <c r="L29" t="n">
-        <v>1344.44483223124</v>
+        <v>1115.208881076723</v>
       </c>
       <c r="M29" t="n">
-        <v>1593.468692229528</v>
+        <v>1364.232741075012</v>
       </c>
       <c r="N29" t="n">
-        <v>1846.522018629019</v>
+        <v>1846.522018629018</v>
       </c>
       <c r="O29" t="n">
         <v>3065.65276557085</v>
@@ -6490,10 +6490,10 @@
         <v>5055.790700612876</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U29" t="n">
         <v>4532.272736625464</v>
@@ -6508,7 +6508,7 @@
         <v>3345.657868549635</v>
       </c>
       <c r="Y29" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3916.27488001858</v>
+        <v>599.0360914043008</v>
       </c>
       <c r="C30" t="n">
-        <v>3809.818418855222</v>
+        <v>492.5796302409431</v>
       </c>
       <c r="D30" t="n">
-        <v>3714.728130001775</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E30" t="n">
-        <v>3620.607715328729</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F30" t="n">
-        <v>3537.223876944891</v>
+        <v>219.9850883306117</v>
       </c>
       <c r="G30" t="n">
-        <v>3452.612998985819</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H30" t="n">
-        <v>3418.354602626537</v>
+        <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>3470.543797450818</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>3542.234225751509</v>
+        <v>224.9954371372304</v>
       </c>
       <c r="K30" t="n">
-        <v>3664.764586400809</v>
+        <v>347.5257977865298</v>
       </c>
       <c r="L30" t="n">
-        <v>3829.521777479483</v>
+        <v>512.2829888652045</v>
       </c>
       <c r="M30" t="n">
-        <v>4021.785648373636</v>
+        <v>704.5468597593573</v>
       </c>
       <c r="N30" t="n">
-        <v>4219.138171831354</v>
+        <v>901.8993832170754</v>
       </c>
       <c r="O30" t="n">
-        <v>4399.677174850138</v>
+        <v>1082.438386235859</v>
       </c>
       <c r="P30" t="n">
-        <v>4544.575641372375</v>
+        <v>1227.336852758096</v>
       </c>
       <c r="Q30" t="n">
-        <v>5008.678231227769</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R30" t="n">
-        <v>5055.790700612876</v>
+        <v>1738.551911998599</v>
       </c>
       <c r="S30" t="n">
-        <v>5006.715907210569</v>
+        <v>1689.477118596291</v>
       </c>
       <c r="T30" t="n">
-        <v>4879.657880299899</v>
+        <v>1562.419091685621</v>
       </c>
       <c r="U30" t="n">
-        <v>4703.372268285048</v>
+        <v>1386.13347967077</v>
       </c>
       <c r="V30" t="n">
-        <v>4504.254750347048</v>
+        <v>1187.015961732769</v>
       </c>
       <c r="W30" t="n">
-        <v>4318.931996080242</v>
+        <v>1001.693207465963</v>
       </c>
       <c r="X30" t="n">
-        <v>4164.064560319122</v>
+        <v>846.8257717048432</v>
       </c>
       <c r="Y30" t="n">
-        <v>4037.578781098343</v>
+        <v>720.3399924840639</v>
       </c>
     </row>
     <row r="31">
@@ -6624,7 +6624,7 @@
         <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>581.3400537321737</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L31" t="n">
         <v>1094.129070546096</v>
@@ -6633,7 +6633,7 @@
         <v>1653.333374659717</v>
       </c>
       <c r="N31" t="n">
-        <v>2192.941485645945</v>
+        <v>2192.941485645946</v>
       </c>
       <c r="O31" t="n">
         <v>2393.758469779942</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E32" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F32" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
@@ -6703,16 +6703,16 @@
         <v>711.0053594437429</v>
       </c>
       <c r="K32" t="n">
-        <v>1725.756262658218</v>
+        <v>891.4059707000398</v>
       </c>
       <c r="L32" t="n">
-        <v>1949.559173034901</v>
+        <v>1115.208881076723</v>
       </c>
       <c r="M32" t="n">
-        <v>2198.583033033189</v>
+        <v>1364.232741075012</v>
       </c>
       <c r="N32" t="n">
-        <v>2451.636359432679</v>
+        <v>2615.540939476698</v>
       </c>
       <c r="O32" t="n">
         <v>3065.65276557085</v>
@@ -6733,19 +6733,19 @@
         <v>4791.379279529732</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V32" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W32" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>224.9954371372304</v>
+        <v>475.0644613181688</v>
       </c>
       <c r="K33" t="n">
-        <v>347.5257977865297</v>
+        <v>597.5948219674682</v>
       </c>
       <c r="L33" t="n">
-        <v>512.2829888652043</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M33" t="n">
-        <v>704.5468597593569</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N33" t="n">
-        <v>901.899383217075</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O33" t="n">
         <v>1332.507410416797</v>
@@ -6858,13 +6858,13 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J34" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K34" t="n">
-        <v>272.5699464186323</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L34" t="n">
-        <v>785.3589632325544</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M34" t="n">
         <v>1344.563267346175</v>
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2031.939689959062</v>
+        <v>2384.566628205421</v>
       </c>
       <c r="C35" t="n">
-        <v>2031.939689959062</v>
+        <v>1946.424155388845</v>
       </c>
       <c r="D35" t="n">
-        <v>1596.029905133506</v>
+        <v>1510.514370563289</v>
       </c>
       <c r="E35" t="n">
-        <v>1162.255160291802</v>
+        <v>1076.739625721584</v>
       </c>
       <c r="F35" t="n">
-        <v>734.3877307010093</v>
+        <v>648.872196130792</v>
       </c>
       <c r="G35" t="n">
-        <v>334.4368965582132</v>
+        <v>248.9213619879958</v>
       </c>
       <c r="H35" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I35" t="n">
-        <v>114.392539339505</v>
+        <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>234.7606604020847</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K35" t="n">
-        <v>415.1612716583815</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L35" t="n">
-        <v>638.9641820350651</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M35" t="n">
-        <v>887.9880420333529</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N35" t="n">
-        <v>1141.041368432843</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O35" t="n">
-        <v>1885.098173423869</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P35" t="n">
-        <v>2629.154978414896</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q35" t="n">
-        <v>2782.304838452854</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R35" t="n">
         <v>3006.290121175863</v>
@@ -6967,22 +6967,22 @@
         <v>3006.290121175863</v>
       </c>
       <c r="T35" t="n">
-        <v>2792.557124440474</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="U35" t="n">
-        <v>2792.557124440474</v>
+        <v>2747.183578271595</v>
       </c>
       <c r="V35" t="n">
-        <v>2792.557124440474</v>
+        <v>2384.566628205421</v>
       </c>
       <c r="W35" t="n">
-        <v>2792.557124440474</v>
+        <v>2384.566628205421</v>
       </c>
       <c r="X35" t="n">
-        <v>2792.557124440474</v>
+        <v>2384.566628205421</v>
       </c>
       <c r="Y35" t="n">
-        <v>2458.23926044397</v>
+        <v>2384.566628205421</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G36" t="n">
-        <v>94.3841987827997</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H36" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I36" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J36" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K36" t="n">
-        <v>673.7775884730679</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L36" t="n">
-        <v>838.5347795517424</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M36" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N36" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O36" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P36" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q36" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7098,22 +7098,22 @@
         <v>105.1020732595475</v>
       </c>
       <c r="K37" t="n">
-        <v>231.5799348298925</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L37" t="n">
-        <v>744.3689516438145</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M37" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N37" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O37" t="n">
-        <v>2352.768458191202</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P37" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q37" t="n">
         <v>2998.677814292588</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2171.704426990608</v>
+        <v>1334.128894208446</v>
       </c>
       <c r="C38" t="n">
-        <v>1733.561954174032</v>
+        <v>895.9864213918689</v>
       </c>
       <c r="D38" t="n">
-        <v>1297.652169348476</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="E38" t="n">
-        <v>863.8774245067711</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="F38" t="n">
         <v>460.0766365663134</v>
@@ -7171,28 +7171,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I38" t="n">
-        <v>114.392539339505</v>
+        <v>114.3925393395051</v>
       </c>
       <c r="J38" t="n">
-        <v>234.7606604020847</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K38" t="n">
-        <v>415.1612716583815</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L38" t="n">
-        <v>638.9641820350651</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M38" t="n">
-        <v>1383.020987026091</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N38" t="n">
-        <v>1636.074313425582</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O38" t="n">
-        <v>1875.025393797107</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P38" t="n">
-        <v>2078.964612565574</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q38" t="n">
         <v>2748.049925732253</v>
@@ -7201,25 +7201,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S38" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U38" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V38" t="n">
-        <v>3006.290121175863</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W38" t="n">
-        <v>3006.290121175863</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="X38" t="n">
-        <v>3006.290121175863</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="Y38" t="n">
-        <v>2598.003997475516</v>
+        <v>1760.428464693353</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J39" t="n">
-        <v>184.0054255484901</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K39" t="n">
-        <v>306.5357861977894</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L39" t="n">
-        <v>471.2929772764639</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M39" t="n">
-        <v>663.5568481706166</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N39" t="n">
-        <v>860.9093716283346</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O39" t="n">
-        <v>1041.448374647118</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P39" t="n">
-        <v>1186.346841169355</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q39" t="n">
         <v>1533.276652930412</v>
@@ -7326,7 +7326,7 @@
         <v>263.3976759832894</v>
       </c>
       <c r="H40" t="n">
-        <v>129.2663519946445</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I40" t="n">
         <v>60.12580242351726</v>
@@ -7335,22 +7335,22 @@
         <v>105.1020732595475</v>
       </c>
       <c r="K40" t="n">
-        <v>231.5799348298921</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L40" t="n">
-        <v>744.3689516438142</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M40" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N40" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O40" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P40" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q40" t="n">
         <v>2998.677814292588</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1974.406295437578</v>
+        <v>926.1357048308862</v>
       </c>
       <c r="C41" t="n">
-        <v>1974.406295437578</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="D41" t="n">
-        <v>1538.496510612022</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.721765770317</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F41" t="n">
-        <v>676.8543361795253</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G41" t="n">
-        <v>276.9035020367291</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H41" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I41" t="n">
-        <v>114.392539339505</v>
+        <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>234.7606604020847</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K41" t="n">
-        <v>415.1612716583815</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L41" t="n">
-        <v>1159.218076649408</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M41" t="n">
-        <v>1577.107026316332</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N41" t="n">
-        <v>2321.163831307358</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O41" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P41" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q41" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R41" t="n">
         <v>3006.290121175863</v>
@@ -7444,19 +7444,19 @@
         <v>2741.878700092718</v>
       </c>
       <c r="U41" t="n">
-        <v>2741.878700092718</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V41" t="n">
-        <v>2379.261750026545</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W41" t="n">
-        <v>1974.406295437578</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="X41" t="n">
-        <v>1974.406295437578</v>
+        <v>1701.012743701588</v>
       </c>
       <c r="Y41" t="n">
-        <v>1974.406295437578</v>
+        <v>1352.435275315794</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I42" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J42" t="n">
-        <v>157.9417523880325</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K42" t="n">
-        <v>280.4721130373318</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L42" t="n">
-        <v>445.2293041160063</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M42" t="n">
-        <v>637.493175010159</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N42" t="n">
-        <v>1110.978395809273</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O42" t="n">
-        <v>1291.517398828056</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P42" t="n">
-        <v>1436.415865350293</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q42" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C43" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D43" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E43" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F43" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G43" t="n">
         <v>263.3976759832894</v>
       </c>
       <c r="H43" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I43" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K43" t="n">
-        <v>231.5799348298921</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L43" t="n">
-        <v>744.3689516438142</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M43" t="n">
         <v>1303.573255757435</v>
@@ -7602,7 +7602,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U43" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V43" t="n">
         <v>2049.901088400909</v>
@@ -7614,7 +7614,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y43" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1651.617132114576</v>
+        <v>1595.354480189046</v>
       </c>
       <c r="C44" t="n">
-        <v>1213.474659298</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="D44" t="n">
-        <v>777.564874472444</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="E44" t="n">
-        <v>762.3043261490054</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F44" t="n">
-        <v>334.4368965582132</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G44" t="n">
         <v>334.4368965582132</v>
@@ -7645,13 +7645,13 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I44" t="n">
-        <v>114.392539339505</v>
+        <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>670.0153478550026</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K44" t="n">
-        <v>850.4159591112993</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L44" t="n">
         <v>1074.218869487983</v>
@@ -7660,13 +7660,13 @@
         <v>1323.242729486271</v>
       </c>
       <c r="N44" t="n">
-        <v>1576.296055885761</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O44" t="n">
-        <v>1815.247136257286</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P44" t="n">
-        <v>2559.303941248312</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q44" t="n">
         <v>2748.049925732253</v>
@@ -7675,25 +7675,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S44" t="n">
-        <v>2955.611696828107</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="T44" t="n">
-        <v>2741.878700092718</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U44" t="n">
-        <v>2482.77215718845</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="V44" t="n">
-        <v>2482.77215718845</v>
+        <v>2429.9401743743</v>
       </c>
       <c r="W44" t="n">
-        <v>2077.916702599484</v>
+        <v>2429.9401743743</v>
       </c>
       <c r="X44" t="n">
-        <v>2077.916702599484</v>
+        <v>2429.9401743743</v>
       </c>
       <c r="Y44" t="n">
-        <v>2077.916702599484</v>
+        <v>2021.654050673953</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>112.3149972477986</v>
       </c>
       <c r="J45" t="n">
-        <v>184.0054255484901</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K45" t="n">
-        <v>673.7775884730679</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L45" t="n">
-        <v>838.5347795517424</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M45" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N45" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O45" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P45" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q45" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R45" t="n">
         <v>1697.561900409858</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C46" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D46" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E46" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F46" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G46" t="n">
         <v>263.3976759832894</v>
       </c>
       <c r="H46" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I46" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J46" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K46" t="n">
-        <v>540.3500421434334</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L46" t="n">
-        <v>1053.139058957355</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M46" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N46" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O46" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P46" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q46" t="n">
         <v>2998.677814292588</v>
@@ -7839,7 +7839,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U46" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V46" t="n">
         <v>2049.901088400909</v>
@@ -7851,7 +7851,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y46" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
   </sheetData>
@@ -7999,10 +7999,10 @@
         <v>41.31500304752736</v>
       </c>
       <c r="Q2" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="R2" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="R2" t="n">
-        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="O3" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="Q3" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M4" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>41.31500304752734</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="N6" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.64570999510201</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,22 +8616,22 @@
         <v>39.64570999510202</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M10" t="n">
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>29.5100249595414</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>252.5949739201399</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>152.2361210781532</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8865,7 +8865,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>39.1280673301012</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>181.8018113760363</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>510.2078026459606</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>252.5949739201401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9099,10 +9099,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>112.0193352648894</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>39.1280673301012</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>196.0465043335771</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>495.9631096884198</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>397.2782580158948</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -9333,7 +9333,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>134.8370665091954</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9412,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>475.6068807059601</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>545.5733194167249</v>
+        <v>29.51002495954003</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>278.921916506461</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>222.990714430925</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9576,10 +9576,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>126.5822947691827</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>378.8538644107532</v>
       </c>
       <c r="M23" t="n">
-        <v>1012.408422629696</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>648.0757922814123</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>397.2782580158951</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>53.09902264877178</v>
+        <v>222.9907144309258</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>378.8538644107521</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>378.8538644107525</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>397.2782580158951</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,10 +10041,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781528</v>
       </c>
       <c r="N28" t="n">
-        <v>134.8370665091954</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>671.2026652600355</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>231.5514658126426</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>370.9513154295728</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10284,7 +10284,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>112.0193352648894</v>
+        <v>112.0193352648889</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10351,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1008.338254547673</v>
       </c>
       <c r="O32" t="n">
-        <v>378.853864410753</v>
+        <v>213.2936825481074</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10427,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>252.5949739201401</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>53.09902264877175</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781528</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>510.2078026459606</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>545.5733194167251</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>136.2617697297542</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K36" t="n">
-        <v>397.2782580158951</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>53.09902264877223</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q38" t="n">
-        <v>521.1469223522427</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10901,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.5949739201401</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>53.09902264877178</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5089844589318</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>170.5707976450879</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>495.9631096884198</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>43.11462354451089</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>278.921916506461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>53.09902264877178</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>152.236121078153</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>545.5733194167251</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.95568125856835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K45" t="n">
-        <v>370.9513154295743</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>152.2361210781532</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>270.0879744159066</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427809</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>53.53081244386544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>277.511637400108</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>102.4005828854449</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.1716401042781</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5154774752252</v>
@@ -23557,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>368.862320739123</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.1716401042781</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>71.38716625710185</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>382.1260557974182</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>346.4276860968286</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>84.6603792245152</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.1716401042781</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>73.2285771068037</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25399,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>23.82597523383123</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.1716401042781</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>48.07378745870892</v>
       </c>
     </row>
     <row r="39">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
-        <v>56.95806057626922</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>59.11156876140757</v>
       </c>
     </row>
     <row r="42">
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.992721390139195</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>414.3290545530836</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>533779.4553586756</v>
+        <v>533779.4553586757</v>
       </c>
     </row>
     <row r="10">
@@ -26316,46 +26316,46 @@
         <v>536147.3198904085</v>
       </c>
       <c r="C2" t="n">
-        <v>536147.3198904087</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="D2" t="n">
         <v>536147.3198904084</v>
       </c>
       <c r="E2" t="n">
-        <v>377868.653101693</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="F2" t="n">
-        <v>377868.6531016931</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="G2" t="n">
-        <v>377868.653101693</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="H2" t="n">
-        <v>377868.6531016931</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="I2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="J2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="K2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="L2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="M2" t="n">
-        <v>377868.6531016931</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="N2" t="n">
-        <v>377868.6531016931</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="O2" t="n">
-        <v>377868.6531016931</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="P2" t="n">
-        <v>377868.6531016931</v>
+        <v>377868.6531016932</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961174</v>
+        <v>136251.3108961176</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736726</v>
+        <v>10809.8226573672</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041605</v>
+        <v>49313.08122041602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>302243.7051245434</v>
       </c>
       <c r="E4" t="n">
-        <v>67639.67088599755</v>
+        <v>67639.67088599752</v>
       </c>
       <c r="F4" t="n">
-        <v>67639.67088599755</v>
+        <v>67639.67088599753</v>
       </c>
       <c r="G4" t="n">
-        <v>67639.67088599755</v>
+        <v>67639.67088599753</v>
       </c>
       <c r="H4" t="n">
-        <v>67639.67088599753</v>
+        <v>67639.67088599749</v>
       </c>
       <c r="I4" t="n">
-        <v>132478.8553729572</v>
+        <v>132478.8553729573</v>
       </c>
       <c r="J4" t="n">
         <v>132478.8553729572</v>
       </c>
       <c r="K4" t="n">
-        <v>132478.8553729573</v>
+        <v>132478.8553729572</v>
       </c>
       <c r="L4" t="n">
-        <v>132478.8553729573</v>
+        <v>132478.8553729572</v>
       </c>
       <c r="M4" t="n">
-        <v>67639.67088599755</v>
+        <v>67639.67088599753</v>
       </c>
       <c r="N4" t="n">
-        <v>67639.67088599755</v>
+        <v>67639.67088599753</v>
       </c>
       <c r="O4" t="n">
         <v>67639.67088599753</v>
       </c>
       <c r="P4" t="n">
-        <v>67639.67088599755</v>
+        <v>67639.67088599753</v>
       </c>
     </row>
     <row r="5">
@@ -26487,19 +26487,19 @@
         <v>53463.84704971767</v>
       </c>
       <c r="H5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971766</v>
       </c>
       <c r="I5" t="n">
-        <v>84616.25585716026</v>
+        <v>84616.25585716029</v>
       </c>
       <c r="J5" t="n">
-        <v>84616.25585716026</v>
+        <v>84616.25585716027</v>
       </c>
       <c r="K5" t="n">
-        <v>84616.25585716026</v>
+        <v>84616.25585716027</v>
       </c>
       <c r="L5" t="n">
-        <v>84616.25585716026</v>
+        <v>84616.25585716027</v>
       </c>
       <c r="M5" t="n">
         <v>53463.84704971767</v>
@@ -26524,46 +26524,46 @@
         <v>183918.454814279</v>
       </c>
       <c r="C6" t="n">
-        <v>197764.0625805756</v>
+        <v>197764.0625805755</v>
       </c>
       <c r="D6" t="n">
         <v>197764.0625805754</v>
       </c>
       <c r="E6" t="n">
-        <v>-241587.6908176928</v>
+        <v>-241983.3874846644</v>
       </c>
       <c r="F6" t="n">
-        <v>256765.1351659779</v>
+        <v>256369.4384990062</v>
       </c>
       <c r="G6" t="n">
-        <v>256765.1351659778</v>
+        <v>256369.4384990062</v>
       </c>
       <c r="H6" t="n">
-        <v>256765.1351659779</v>
+        <v>256369.4384990063</v>
       </c>
       <c r="I6" t="n">
-        <v>182800.8977641735</v>
+        <v>182800.8977641734</v>
       </c>
       <c r="J6" t="n">
-        <v>308242.3860029236</v>
+        <v>308242.3860029237</v>
       </c>
       <c r="K6" t="n">
-        <v>319052.2086602908</v>
+        <v>319052.208660291</v>
       </c>
       <c r="L6" t="n">
-        <v>319052.2086602908</v>
+        <v>319052.208660291</v>
       </c>
       <c r="M6" t="n">
-        <v>207452.0539455618</v>
+        <v>207056.3572785902</v>
       </c>
       <c r="N6" t="n">
-        <v>256765.1351659779</v>
+        <v>256369.4384990062</v>
       </c>
       <c r="O6" t="n">
-        <v>256765.1351659779</v>
+        <v>256369.4384990062</v>
       </c>
       <c r="P6" t="n">
-        <v>256765.1351659779</v>
+        <v>256369.4384990062</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="F3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="G3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="H3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="I3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="J3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="K3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="L3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="M3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="N3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="O3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="P3" t="n">
-        <v>356.3411563231447</v>
+        <v>356.3411563231449</v>
       </c>
     </row>
     <row r="4">
@@ -26807,7 +26807,7 @@
         <v>751.5725302939657</v>
       </c>
       <c r="H4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939655</v>
       </c>
       <c r="I4" t="n">
         <v>1263.947675153219</v>
@@ -26822,7 +26822,7 @@
         <v>1263.947675153219</v>
       </c>
       <c r="M4" t="n">
-        <v>751.5725302939658</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="N4" t="n">
         <v>751.5725302939657</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.3411563231448</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>710.2575272464384</v>
+        <v>710.2575272464383</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592531</v>
+        <v>512.3751448592537</v>
       </c>
       <c r="J4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.882382387185</v>
+        <v>197.8823823871849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>710.2575272464384</v>
+        <v>710.2575272464383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C3" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>57.74913128065019</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -27472,10 +27472,10 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>4.928040977687559</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -27542,13 +27542,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>138.5497288135992</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T4" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>234.3336676918984</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>254.1195287669911</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27697,16 +27697,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738493</v>
+        <v>57.74913128065019</v>
       </c>
       <c r="E6" t="n">
-        <v>56.78895584205372</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
         <v>84.53123883647795</v>
@@ -27748,7 +27748,7 @@
         <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.5854294842699</v>
+        <v>174.713820929217</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0326012679123</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27940,10 +27940,10 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.53123883647795</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T9" t="n">
         <v>92.48660254844231</v>
@@ -27994,7 +27994,7 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
         <v>112.0037583559815</v>
@@ -28022,7 +28022,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28073,10 +28073,10 @@
         <v>268.8993414456936</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I11" t="n">
-        <v>55.22750725285646</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K11" t="n">
         <v>182.2228396528251</v>
@@ -31770,28 +31770,28 @@
         <v>226.0635458350339</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235232</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N11" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651758</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S11" t="n">
-        <v>32.64371497372327</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T11" t="n">
-        <v>6.270888087656546</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U11" t="n">
         <v>0.1146021809280465</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.766469656996953</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H12" t="n">
-        <v>7.402483266260047</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I12" t="n">
         <v>26.38941582204422</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110248</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L12" t="n">
         <v>166.4214051299744</v>
@@ -31855,25 +31855,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
         <v>146.3620873961989</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385667</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S12" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T12" t="n">
-        <v>3.089410591141226</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05042563532874693</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6425824130417365</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H13" t="n">
-        <v>5.713141817771079</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I13" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J13" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L13" t="n">
-        <v>95.53447984440508</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M13" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N13" t="n">
-        <v>98.33263417028688</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O13" t="n">
-        <v>90.82610325429928</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P13" t="n">
-        <v>77.7174220282478</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479486</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R13" t="n">
         <v>28.89284195367662</v>
@@ -31949,7 +31949,7 @@
         <v>11.19845896182735</v>
       </c>
       <c r="T13" t="n">
-        <v>2.745579401178328</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U13" t="n">
         <v>0.03504994980227658</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I14" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K14" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L14" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S14" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T14" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H15" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M15" t="n">
         <v>194.2059301961139</v>
@@ -32092,25 +32092,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S15" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T15" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H16" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I16" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J16" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L16" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M16" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N16" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O16" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P16" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R16" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S16" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T16" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I17" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K17" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L17" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N17" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S17" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T17" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H18" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M18" t="n">
         <v>194.2059301961139</v>
@@ -32329,25 +32329,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P18" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S18" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T18" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H19" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I19" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J19" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K19" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L19" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M19" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N19" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O19" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P19" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R19" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S19" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T19" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I20" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K20" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L20" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N20" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S20" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T20" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H21" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K21" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M21" t="n">
         <v>194.2059301961139</v>
@@ -32566,25 +32566,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S21" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T21" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H22" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I22" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K22" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L22" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M22" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N22" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O22" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P22" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R22" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S22" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T22" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H23" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I23" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K23" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N23" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S23" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T23" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M24" t="n">
         <v>194.2059301961139</v>
@@ -32803,25 +32803,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S24" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T24" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I25" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M25" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R25" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S25" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T25" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H26" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I26" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K26" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N26" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S26" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T26" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M27" t="n">
         <v>194.2059301961139</v>
@@ -33040,25 +33040,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S27" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T27" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H28" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I28" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M28" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P28" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R28" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S28" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T28" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H29" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I29" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K29" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L29" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S29" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T29" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M30" t="n">
         <v>194.2059301961139</v>
@@ -33277,25 +33277,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S30" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T30" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H31" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I31" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M31" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P31" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R31" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S31" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T31" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H32" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I32" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K32" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L32" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S32" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T32" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M33" t="n">
         <v>194.2059301961139</v>
@@ -33514,25 +33514,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S33" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T33" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H34" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I34" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M34" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P34" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R34" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S34" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T34" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H35" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I35" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K35" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L35" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N35" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S35" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T35" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M36" t="n">
         <v>194.2059301961139</v>
@@ -33751,25 +33751,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P36" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S36" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T36" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H37" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I37" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M37" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P37" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R37" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S37" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T37" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H38" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I38" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K38" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L38" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N38" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S38" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T38" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M39" t="n">
         <v>194.2059301961139</v>
@@ -33988,25 +33988,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S39" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T39" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H40" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I40" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M40" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P40" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R40" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S40" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T40" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H41" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I41" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K41" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L41" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N41" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S41" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T41" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M42" t="n">
         <v>194.2059301961139</v>
@@ -34225,25 +34225,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P42" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S42" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T42" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H43" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I43" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M43" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P43" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R43" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S43" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T43" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.432527261600581</v>
+        <v>1.432527261600582</v>
       </c>
       <c r="H44" t="n">
-        <v>14.67086981786695</v>
+        <v>14.67086981786696</v>
       </c>
       <c r="I44" t="n">
-        <v>55.22750725285644</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692724</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K44" t="n">
-        <v>182.222839652825</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L44" t="n">
-        <v>226.0635458350338</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N44" t="n">
-        <v>255.6094206055458</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
-        <v>241.364727648005</v>
+        <v>241.3647276480052</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772407</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.6968283211698</v>
+        <v>154.6968283211699</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651757</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S44" t="n">
-        <v>32.64371497372326</v>
+        <v>32.64371497372328</v>
       </c>
       <c r="T44" t="n">
-        <v>6.270888087656545</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1146021809280464</v>
+        <v>0.1146021809280465</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7664696569969528</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260045</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204421</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110251</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M45" t="n">
         <v>194.2059301961139</v>
@@ -34462,25 +34462,25 @@
         <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P45" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961989</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385665</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424943</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S45" t="n">
-        <v>14.2368377078162</v>
+        <v>14.23683770781621</v>
       </c>
       <c r="T45" t="n">
-        <v>3.089410591141225</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05042563532874692</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6425824130417364</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H46" t="n">
-        <v>5.713141817771078</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I46" t="n">
-        <v>19.32420565765513</v>
+        <v>19.32420565765514</v>
       </c>
       <c r="J46" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884899</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440507</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M46" t="n">
-        <v>100.7277140734423</v>
+        <v>100.7277140734424</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028687</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429927</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P46" t="n">
-        <v>77.71742202824778</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.80751460479485</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R46" t="n">
-        <v>28.89284195367661</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S46" t="n">
         <v>11.19845896182735</v>
       </c>
       <c r="T46" t="n">
-        <v>2.745579401178327</v>
+        <v>2.745579401178329</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03504994980227657</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,10 +34719,10 @@
         <v>41.31500304752736</v>
       </c>
       <c r="Q2" t="n">
+        <v>41.31500304752734</v>
+      </c>
+      <c r="R2" t="n">
         <v>39.64570999510201</v>
-      </c>
-      <c r="R2" t="n">
-        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34789,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="O3" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="Q3" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M4" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>41.31500304752734</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="N6" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P6" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.64570999510201</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35336,22 +35336,22 @@
         <v>39.64570999510202</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M10" t="n">
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.81488577372506</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J11" t="n">
         <v>561.2351601166642</v>
@@ -35415,10 +35415,10 @@
         <v>182.222839652825</v>
       </c>
       <c r="L11" t="n">
-        <v>226.0635458350338</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N11" t="n">
         <v>255.6094206055459</v>
@@ -35427,7 +35427,7 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P11" t="n">
-        <v>235.5092358367822</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q11" t="n">
         <v>706.7158040369218</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>52.71635840836502</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J12" t="n">
-        <v>325.0095479612424</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K12" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M12" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N12" t="n">
         <v>199.3459832906242</v>
@@ -35570,28 +35570,28 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K13" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L13" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M13" t="n">
-        <v>252.9638351515955</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N13" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O13" t="n">
-        <v>514.7344358055936</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P13" t="n">
-        <v>428.7344866447547</v>
+        <v>116.8454893583489</v>
       </c>
       <c r="Q13" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R13" t="n">
-        <v>7.68919887199478</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J14" t="n">
-        <v>303.3857720453087</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K14" t="n">
         <v>182.222839652825</v>
       </c>
       <c r="L14" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M14" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N14" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
-        <v>751.5725302939657</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>52.71635840836502</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J15" t="n">
-        <v>325.0095479612426</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598983</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
         <v>199.3459832906242</v>
@@ -35749,7 +35749,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,28 +35807,28 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K16" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L16" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M16" t="n">
-        <v>564.8528324380009</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N16" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O16" t="n">
-        <v>202.8454385191885</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P16" t="n">
-        <v>428.7344866447547</v>
+        <v>116.8454893583489</v>
       </c>
       <c r="Q16" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R16" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L17" t="n">
-        <v>422.110050168611</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M17" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N17" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110247</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598983</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N18" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
-        <v>579.6408873277971</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P18" t="n">
         <v>146.3620873961988</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K19" t="n">
-        <v>352.1901855749455</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L19" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M19" t="n">
-        <v>564.8528324380009</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N19" t="n">
-        <v>233.1697006794823</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O19" t="n">
         <v>514.7344358055936</v>
@@ -36062,10 +36062,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q19" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R19" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L20" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N20" t="n">
-        <v>731.216301311506</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
-        <v>751.5725302939657</v>
+        <v>235.5092358367808</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R20" t="n">
         <v>260.8486822662721</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110247</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K21" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M21" t="n">
-        <v>473.1278467025749</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N21" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
         <v>146.3620873961988</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K22" t="n">
-        <v>352.1901855749455</v>
+        <v>297.6471075097739</v>
       </c>
       <c r="L22" t="n">
-        <v>517.9687038524464</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M22" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O22" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P22" t="n">
-        <v>204.2997167974304</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R22" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K23" t="n">
-        <v>182.222839652825</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350338</v>
+        <v>604.9174102457871</v>
       </c>
       <c r="M23" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N23" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
-        <v>854.0750031586531</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110253</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M24" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
-        <v>543.6403454120939</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939964</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205078</v>
       </c>
       <c r="K25" t="n">
-        <v>127.7554157276208</v>
+        <v>297.6471075097749</v>
       </c>
       <c r="L25" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M25" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N25" t="n">
-        <v>545.0586979658876</v>
+        <v>545.0586979658874</v>
       </c>
       <c r="O25" t="n">
-        <v>514.7344358055936</v>
+        <v>514.7344358055934</v>
       </c>
       <c r="P25" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q25" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R25" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J26" t="n">
         <v>561.2351601166642</v>
@@ -36600,19 +36600,19 @@
         <v>1025.000912337853</v>
       </c>
       <c r="L26" t="n">
-        <v>604.917410245786</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N26" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480051</v>
+        <v>620.2185920587576</v>
       </c>
       <c r="P26" t="n">
-        <v>1042.675852123095</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q26" t="n">
         <v>706.7158040369222</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110247</v>
+        <v>72.41457404110253</v>
       </c>
       <c r="K27" t="n">
-        <v>521.0462990757933</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M27" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O27" t="n">
         <v>182.3626293119023</v>
@@ -36694,10 +36694,10 @@
         <v>146.3620873961988</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939964</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K28" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L28" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M28" t="n">
-        <v>564.8528324380009</v>
+        <v>252.9638351515953</v>
       </c>
       <c r="N28" t="n">
-        <v>233.1697006794823</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O28" t="n">
         <v>514.7344358055936</v>
@@ -36776,7 +36776,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R28" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K29" t="n">
-        <v>853.4255049128606</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L29" t="n">
         <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055459</v>
+        <v>487.1608864181885</v>
       </c>
       <c r="O29" t="n">
         <v>1231.445198931143</v>
       </c>
       <c r="P29" t="n">
-        <v>1042.675852123095</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q29" t="n">
         <v>706.7158040369222</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>52.71635840836507</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110224</v>
+        <v>72.41457404110253</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598982</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299746</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M30" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.7904948034293</v>
+        <v>350.4341532939964</v>
       </c>
       <c r="R30" t="n">
-        <v>47.5883529142493</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,19 +36992,19 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K31" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L31" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M31" t="n">
-        <v>564.8528324380009</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N31" t="n">
         <v>545.0586979658874</v>
       </c>
       <c r="O31" t="n">
-        <v>202.8454385191885</v>
+        <v>202.8454385191881</v>
       </c>
       <c r="P31" t="n">
         <v>428.7344866447547</v>
@@ -37013,7 +37013,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J32" t="n">
         <v>561.2351601166642</v>
       </c>
       <c r="K32" t="n">
-        <v>1025.000912337853</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L32" t="n">
         <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>255.6094206055459</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="O32" t="n">
-        <v>620.2185920587581</v>
+        <v>454.6584101961125</v>
       </c>
       <c r="P32" t="n">
-        <v>1042.675852123095</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q32" t="n">
         <v>706.7158040369222</v>
@@ -37147,22 +37147,22 @@
         <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110247</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K33" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M33" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
-        <v>434.9576032320424</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
         <v>146.3620873961988</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205076</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K34" t="n">
-        <v>127.7554157276207</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L34" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M34" t="n">
-        <v>564.852832438001</v>
+        <v>252.9638351515953</v>
       </c>
       <c r="N34" t="n">
         <v>545.0586979658876</v>
@@ -37250,7 +37250,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R34" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J35" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L35" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N35" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
-        <v>751.5725302939657</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P35" t="n">
-        <v>751.5725302939659</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R35" t="n">
-        <v>226.2477603262719</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204421</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110247</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K36" t="n">
-        <v>521.0462990757933</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M36" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P36" t="n">
         <v>146.3620873961988</v>
@@ -37408,7 +37408,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K37" t="n">
-        <v>127.7554157276212</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L37" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M37" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
         <v>545.0586979658876</v>
@@ -37484,10 +37484,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q37" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R37" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L38" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M38" t="n">
-        <v>751.5725302939657</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N38" t="n">
         <v>255.6094206055459</v>
@@ -37560,10 +37560,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772406</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q38" t="n">
-        <v>675.8437506734126</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R38" t="n">
         <v>260.8486822662721</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>52.71635840836502</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110247</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K39" t="n">
         <v>123.7680410598983</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M39" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
         <v>146.3620873961988</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.4341532939968</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
         <v>165.9446944236836</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205076</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K40" t="n">
-        <v>127.7554157276208</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L40" t="n">
-        <v>517.9687038524465</v>
+        <v>517.9687038524467</v>
       </c>
       <c r="M40" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N40" t="n">
         <v>545.0586979658876</v>
@@ -37721,10 +37721,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q40" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R40" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L41" t="n">
-        <v>751.5725302939657</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M41" t="n">
-        <v>422.110050168611</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N41" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204422</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110247</v>
+        <v>400.2512659261656</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598983</v>
+        <v>166.8826646044092</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M42" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
-        <v>478.2678997970852</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
         <v>182.3626293119021</v>
@@ -37882,7 +37882,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205076</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K43" t="n">
-        <v>127.7554157276208</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L43" t="n">
         <v>517.9687038524465</v>
       </c>
       <c r="M43" t="n">
-        <v>564.852832438001</v>
+        <v>252.9638351515955</v>
       </c>
       <c r="N43" t="n">
         <v>545.0586979658876</v>
@@ -37961,7 +37961,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R43" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.81488577372505</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J44" t="n">
         <v>561.2351601166642</v>
@@ -38022,10 +38022,10 @@
         <v>182.222839652825</v>
       </c>
       <c r="L44" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N44" t="n">
         <v>255.6094206055459</v>
@@ -38034,10 +38034,10 @@
         <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>751.5725302939657</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q44" t="n">
-        <v>190.6525095797383</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R44" t="n">
         <v>260.8486822662721</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>52.71635840836502</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110247</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K45" t="n">
-        <v>494.7193564894725</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299743</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M45" t="n">
-        <v>194.2059301961139</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N45" t="n">
         <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119021</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P45" t="n">
         <v>146.3620873961988</v>
@@ -38119,7 +38119,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>132.8848040411314</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K46" t="n">
-        <v>352.1901855749455</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L46" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M46" t="n">
-        <v>252.9638351515955</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N46" t="n">
         <v>545.0586979658876</v>
@@ -38195,10 +38195,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q46" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R46" t="n">
-        <v>7.689198871994773</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
